--- a/testExcel/userfile/a.xlsx
+++ b/testExcel/userfile/a.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,14 +18,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+  <si>
+    <t>StuNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nationality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +89,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +367,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>11001</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>144399</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11002</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>144400</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11003</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>144401</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>11004</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>144402</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11005</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>144403</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>